--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CD/10/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CD/10/seed5/result_data_RandomForest.xlsx
@@ -488,7 +488,7 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.219699999999996</v>
+        <v>-7.033499999999992</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -638,7 +638,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-11.84519999999999</v>
+        <v>-11.38799999999999</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -675,7 +675,7 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.741899999999999</v>
+        <v>-7.722500000000004</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -879,7 +879,7 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-8.224400000000001</v>
+        <v>-8.4405</v>
       </c>
       <c r="E26" t="n">
         <v>13.83</v>
@@ -964,7 +964,7 @@
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-8.268799999999999</v>
+        <v>-8.467199999999998</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -978,7 +978,7 @@
         <v>3.16</v>
       </c>
       <c r="C32" t="n">
-        <v>-13.3516</v>
+        <v>-13.37090000000001</v>
       </c>
       <c r="D32" t="n">
         <v>-8.69</v>
@@ -1032,7 +1032,7 @@
         <v>-13.02</v>
       </c>
       <c r="D35" t="n">
-        <v>-8.152299999999999</v>
+        <v>-8.208299999999998</v>
       </c>
       <c r="E35" t="n">
         <v>15.78</v>
@@ -1046,7 +1046,7 @@
         <v>9.84</v>
       </c>
       <c r="C36" t="n">
-        <v>-12.68990000000002</v>
+        <v>-12.7968</v>
       </c>
       <c r="D36" t="n">
         <v>-9.050000000000001</v>
@@ -1066,7 +1066,7 @@
         <v>-12.29</v>
       </c>
       <c r="D37" t="n">
-        <v>-7.950000000000004</v>
+        <v>-7.811400000000003</v>
       </c>
       <c r="E37" t="n">
         <v>16.03</v>
@@ -1080,7 +1080,7 @@
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-12.7368</v>
+        <v>-12.5401</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
@@ -1202,7 +1202,7 @@
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-7.634500000000002</v>
+        <v>-7.813599999999997</v>
       </c>
       <c r="E45" t="n">
         <v>16.85</v>
@@ -1216,7 +1216,7 @@
         <v>4.17</v>
       </c>
       <c r="C46" t="n">
-        <v>-14.61789999999999</v>
+        <v>-14.6781</v>
       </c>
       <c r="D46" t="n">
         <v>-8.09</v>
@@ -1352,7 +1352,7 @@
         <v>6.01</v>
       </c>
       <c r="C54" t="n">
-        <v>-12.7663</v>
+        <v>-12.6347</v>
       </c>
       <c r="D54" t="n">
         <v>-8.01</v>
@@ -1369,7 +1369,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.7389</v>
+        <v>-13.8209</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1406,7 +1406,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.181799999999997</v>
+        <v>-8.3331</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1573,7 +1573,7 @@
         <v>5.53</v>
       </c>
       <c r="C67" t="n">
-        <v>-11.1796</v>
+        <v>-11.0797</v>
       </c>
       <c r="D67" t="n">
         <v>-6.43</v>
@@ -1607,7 +1607,7 @@
         <v>4.98</v>
       </c>
       <c r="C69" t="n">
-        <v>-12.4109</v>
+        <v>-12.22209999999999</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
@@ -1658,7 +1658,7 @@
         <v>6.81</v>
       </c>
       <c r="C72" t="n">
-        <v>-11.4333</v>
+        <v>-11.47410000000001</v>
       </c>
       <c r="D72" t="n">
         <v>-7.37</v>
@@ -1981,7 +1981,7 @@
         <v>4.28</v>
       </c>
       <c r="C91" t="n">
-        <v>-10.38210000000001</v>
+        <v>-10.5457</v>
       </c>
       <c r="D91" t="n">
         <v>-5.79</v>
@@ -2117,7 +2117,7 @@
         <v>8.42</v>
       </c>
       <c r="C99" t="n">
-        <v>-12.81239999999999</v>
+        <v>-12.97499999999999</v>
       </c>
       <c r="D99" t="n">
         <v>-7.98</v>
@@ -2137,7 +2137,7 @@
         <v>-14.32</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.103700000000002</v>
+        <v>-7.981200000000005</v>
       </c>
       <c r="E100" t="n">
         <v>15.6</v>
@@ -2171,7 +2171,7 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-8.070300000000003</v>
+        <v>-7.826400000000001</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
